--- a/files/resources/modelli/aziende-sanitarie-locali/Architettura-ModelloASL-DesignersItalia.xlsx
+++ b/files/resources/modelli/aziende-sanitarie-locali/Architettura-ModelloASL-DesignersItalia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielenole/Desktop/new modelli/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794F4BA6-56D9-B346-AAC8-3837062534F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A849D7-0DD5-1546-801D-7E694B606B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" firstSheet="16" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" firstSheet="15" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduzione" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="754">
   <si>
     <t>Architettura dell'informazione del modello di sito delle Aziende Sanitarie Locali (ASL) italiane</t>
   </si>
@@ -1059,9 +1059,6 @@
     <t>Tipologia che descrive i servizi sanitari e le prestazioni sanitarie di una ASL</t>
   </si>
   <si>
-    <t>Vai al layout hi-fi di una pagina servizio per un riferimento grafico</t>
-  </si>
-  <si>
     <t>Elemento</t>
   </si>
   <si>
@@ -1299,9 +1296,6 @@
   </si>
   <si>
     <t>Tipologia che descrive i passi di una procedura che gli utenti delle ASL devono seguire per ottenere qualcosa, generalmente una procedura amministrativa (Prenotare servizi e prestazioni, Ritirare referti, Cambiare o scegliere il medico di base, etc.)</t>
-  </si>
-  <si>
-    <t>Vai al layout hi-fi di una pagina Come fare per per un riferimento grafico</t>
   </si>
   <si>
     <t>Titolo del Come fare per</t>
@@ -1370,9 +1364,6 @@
   </si>
   <si>
     <t>Tipologia che descrive le informazioni relative a una struttura fisica di tipo sanitario, come ospedali, ambulatori, poliambulatori, laboratori di analisi, RSA, consultori, etc.</t>
-  </si>
-  <si>
-    <t>Vai al layout hi-fi di una pagina struttura per un riferimento grafico.</t>
   </si>
   <si>
     <t>Nome della struttura</t>
@@ -3518,7 +3509,7 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3998,6 +3989,21 @@
     <xf numFmtId="164" fontId="51" fillId="15" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="38" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="30" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4005,9 +4011,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="35" fillId="13" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="45" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4041,14 +4044,14 @@
     <xf numFmtId="164" fontId="3" fillId="13" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="164" fontId="38" fillId="13" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="38" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="164" fontId="53" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4066,35 +4069,20 @@
     <xf numFmtId="165" fontId="42" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="42" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="42" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="42" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="42" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="42" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -4109,39 +4097,7 @@
     <cellStyle name="Result" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Result2" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
-  <dxfs count="76">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="72">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -6260,73 +6216,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A1" s="176" t="s">
-        <v>459</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
+      <c r="A1" s="181" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
     </row>
     <row r="2" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A2" s="188" t="s">
-        <v>460</v>
-      </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
+      <c r="A2" s="192" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
     </row>
     <row r="3" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A3" s="189" t="s">
-        <v>461</v>
-      </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
+      <c r="A3" s="193" t="s">
+        <v>458</v>
+      </c>
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
     </row>
     <row r="4" spans="1:7" ht="39.75" customHeight="1">
       <c r="A4" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="C4" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="D4" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="E4" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="F4" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="G4" s="106" t="s">
         <v>275</v>
-      </c>
-      <c r="G4" s="106" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="39.75" customHeight="1">
       <c r="A5" s="43" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E5" s="46"/>
       <c r="F5" s="46"/>
@@ -6334,16 +6290,16 @@
     </row>
     <row r="6" spans="1:7" ht="51" customHeight="1">
       <c r="A6" s="43" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
@@ -6351,16 +6307,16 @@
     </row>
     <row r="7" spans="1:7" ht="57">
       <c r="A7" s="43" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="46"/>
@@ -6368,94 +6324,94 @@
     </row>
     <row r="8" spans="1:7" ht="38">
       <c r="A8" s="43" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B8" s="99" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="G8" s="69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="57">
       <c r="A9" s="43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="73" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="76">
       <c r="A10" s="43" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E10" s="73" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="46"/>
       <c r="G10" s="69" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57">
       <c r="A11" s="43" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B11" s="99" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="69" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="38">
       <c r="A12" s="43" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B12" s="99" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46"/>
@@ -6463,94 +6419,94 @@
     </row>
     <row r="13" spans="1:7" ht="57">
       <c r="A13" s="43" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B13" s="99" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46"/>
       <c r="G13" s="73" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="73.5" customHeight="1">
       <c r="A14" s="57" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E14" s="111"/>
       <c r="F14" s="55"/>
       <c r="G14" s="80" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="73.5" customHeight="1">
       <c r="A15" s="57" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E15" s="111"/>
       <c r="F15" s="55"/>
       <c r="G15" s="80" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="38">
       <c r="A16" s="82" t="s">
+        <v>338</v>
+      </c>
+      <c r="B16" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="C16" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="84" t="s">
         <v>340</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="D16" s="84" t="s">
-        <v>341</v>
       </c>
       <c r="E16" s="85" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="55"/>
       <c r="G16" s="66" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="57">
       <c r="A17" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="B17" s="60" t="s">
         <v>342</v>
       </c>
-      <c r="B17" s="60" t="s">
-        <v>343</v>
-      </c>
       <c r="C17" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46"/>
@@ -7549,28 +7505,28 @@
     <mergeCell ref="A3:G3"/>
   </mergeCells>
   <conditionalFormatting sqref="A17:F17">
-    <cfRule type="expression" dxfId="39" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
       <formula>$C17="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G15">
-    <cfRule type="expression" dxfId="38" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="2" stopIfTrue="1">
       <formula>$C11="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="30" priority="1" stopIfTrue="1">
+      <formula>$C5="Sì"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E16:F16">
-    <cfRule type="expression" dxfId="37" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="36" stopIfTrue="1">
       <formula>$C16="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G9">
-    <cfRule type="expression" dxfId="36" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="34" stopIfTrue="1">
       <formula>$C8="Sì"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
-      <formula>$C5="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -7614,62 +7570,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A1" s="176" t="s">
-        <v>488</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
+      <c r="A1" s="181" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
     </row>
     <row r="2" spans="1:26" ht="63" customHeight="1">
-      <c r="A2" s="188" t="s">
-        <v>489</v>
-      </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
+      <c r="A2" s="192" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
     </row>
     <row r="3" spans="1:26" ht="50.25" customHeight="1">
       <c r="A3" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="C3" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="D3" s="98" t="s">
         <v>272</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="E3" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="E3" s="98" t="s">
+      <c r="F3" s="98" t="s">
         <v>274</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="G3" s="42" t="s">
         <v>275</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="90" customHeight="1">
       <c r="A4" s="43" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
@@ -7677,16 +7633,16 @@
     </row>
     <row r="5" spans="1:26" ht="114">
       <c r="A5" s="63" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B5" s="102" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E5" s="111"/>
       <c r="F5" s="55"/>
@@ -7694,16 +7650,16 @@
     </row>
     <row r="6" spans="1:26" ht="95">
       <c r="A6" s="43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D6" s="201" t="s">
-        <v>753</v>
+        <v>278</v>
+      </c>
+      <c r="D6" s="175" t="s">
+        <v>750</v>
       </c>
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
@@ -7711,16 +7667,16 @@
     </row>
     <row r="7" spans="1:26" ht="38">
       <c r="A7" s="63" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B7" s="102" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E7" s="111"/>
       <c r="F7" s="55"/>
@@ -7728,16 +7684,16 @@
     </row>
     <row r="8" spans="1:26" ht="29.25" customHeight="1">
       <c r="A8" s="43" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B8" s="99" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
@@ -7745,37 +7701,37 @@
     </row>
     <row r="9" spans="1:26" ht="114">
       <c r="A9" s="43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B9" s="99" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="72" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="73" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39.75" customHeight="1">
       <c r="A10" s="43" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B10" s="99" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="86"/>
@@ -7783,42 +7739,42 @@
     </row>
     <row r="11" spans="1:26" ht="25">
       <c r="A11" s="43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C11" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="D11" s="61" t="s">
-        <v>280</v>
-      </c>
       <c r="E11" s="72" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F11" s="86"/>
       <c r="G11" s="86"/>
     </row>
     <row r="12" spans="1:26" ht="76">
       <c r="A12" s="63" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B12" s="102" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E12" s="111"/>
       <c r="F12" s="80" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="80" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H12" s="132"/>
       <c r="I12" s="132"/>
@@ -7842,23 +7798,23 @@
     </row>
     <row r="13" spans="1:26" ht="76">
       <c r="A13" s="133" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B13" s="134" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E13" s="86"/>
       <c r="F13" s="172" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="174" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H13" s="71"/>
       <c r="I13" s="71"/>
@@ -7882,23 +7838,23 @@
     </row>
     <row r="14" spans="1:26" ht="73.5" customHeight="1">
       <c r="A14" s="63" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B14" s="102" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E14" s="111"/>
       <c r="F14" s="80" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="80" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="68.25" customHeight="1">
@@ -7906,20 +7862,20 @@
         <v>110</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E15" s="111"/>
       <c r="F15" s="79" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="80" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="70.5" customHeight="1">
@@ -7927,20 +7883,20 @@
         <v>214</v>
       </c>
       <c r="B16" s="102" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E16" s="111"/>
       <c r="F16" s="79" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="173" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="69.75" customHeight="1">
@@ -7948,55 +7904,55 @@
         <v>208</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E17" s="111"/>
       <c r="F17" s="79" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="69.75" customHeight="1">
       <c r="A18" s="57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="79" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="80" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="38">
       <c r="A19" s="63" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B19" s="102" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E19" s="111"/>
       <c r="F19" s="53"/>
@@ -8004,16 +7960,16 @@
     </row>
     <row r="20" spans="1:7" ht="57">
       <c r="A20" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" s="60" t="s">
         <v>342</v>
       </c>
-      <c r="B20" s="60" t="s">
-        <v>343</v>
-      </c>
       <c r="C20" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E20" s="86"/>
       <c r="F20" s="86"/>
@@ -9005,68 +8961,68 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="A13:B13">
-    <cfRule type="expression" dxfId="35" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="16" stopIfTrue="1">
       <formula>$C13="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:F12 A14:F17">
-    <cfRule type="expression" dxfId="34" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="41" stopIfTrue="1">
       <formula>$C12="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 C5:G5 A5:A10 B7:G8 B10:G10 E4:G4 C6 E6:G6">
-    <cfRule type="expression" dxfId="33" priority="40" stopIfTrue="1">
+  <conditionalFormatting sqref="A4:G4">
+    <cfRule type="expression" dxfId="25" priority="1" stopIfTrue="1">
       <formula>$C4="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:G19">
-    <cfRule type="expression" dxfId="32" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="42" stopIfTrue="1">
       <formula>$C19="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="31" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="43" stopIfTrue="1">
       <formula>$C11="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="30" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="44" stopIfTrue="1">
       <formula>$C20="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C5:G5 A5:A10 C6 E6:G6 B7:G8 B10:G10">
+    <cfRule type="expression" dxfId="21" priority="40" stopIfTrue="1">
+      <formula>$C5="Sì"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C9:G9">
-    <cfRule type="expression" dxfId="29" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="45" stopIfTrue="1">
       <formula>$C9="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:F11">
-    <cfRule type="expression" dxfId="28" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="46" stopIfTrue="1">
       <formula>$C11="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:F13">
-    <cfRule type="expression" dxfId="27" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
       <formula>$C13="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F18">
-    <cfRule type="expression" dxfId="26" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="47" stopIfTrue="1">
       <formula>$C18="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="expression" dxfId="25" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="48" stopIfTrue="1">
       <formula>$C20="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G18">
-    <cfRule type="expression" dxfId="24" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
       <formula>$C12="Sì"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>$C4="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -9120,62 +9076,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A1" s="176" t="s">
-        <v>509</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
+      <c r="A1" s="181" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
     </row>
     <row r="2" spans="1:26" ht="23.25" customHeight="1">
-      <c r="A2" s="191" t="s">
-        <v>510</v>
-      </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
+      <c r="A2" s="194" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
     </row>
     <row r="3" spans="1:26" ht="50.25" customHeight="1">
       <c r="A3" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="C3" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="D3" s="98" t="s">
         <v>272</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="E3" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="E3" s="98" t="s">
+      <c r="F3" s="98" t="s">
         <v>274</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="G3" s="106" t="s">
         <v>275</v>
-      </c>
-      <c r="G3" s="106" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="90" customHeight="1">
       <c r="A4" s="135" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B4" s="136" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
@@ -9183,16 +9139,16 @@
     </row>
     <row r="5" spans="1:26" ht="95">
       <c r="A5" s="43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D5" s="201" t="s">
-        <v>753</v>
+        <v>278</v>
+      </c>
+      <c r="D5" s="175" t="s">
+        <v>750</v>
       </c>
       <c r="E5" s="46"/>
       <c r="F5" s="46"/>
@@ -9200,16 +9156,16 @@
     </row>
     <row r="6" spans="1:26" ht="57">
       <c r="A6" s="137" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B6" s="138" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E6" s="111"/>
       <c r="F6" s="55"/>
@@ -9217,16 +9173,16 @@
     </row>
     <row r="7" spans="1:26" ht="57">
       <c r="A7" s="137" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B7" s="138" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D7" s="139" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E7" s="111"/>
       <c r="F7" s="55"/>
@@ -9234,16 +9190,16 @@
     </row>
     <row r="8" spans="1:26" ht="38">
       <c r="A8" s="82" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B8" s="138" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D8" s="84" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E8" s="111"/>
       <c r="F8" s="55"/>
@@ -9251,16 +9207,16 @@
     </row>
     <row r="9" spans="1:26" ht="57">
       <c r="A9" s="135" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B9" s="140" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D9" s="141" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
@@ -9268,61 +9224,61 @@
     </row>
     <row r="10" spans="1:26" ht="38">
       <c r="A10" s="135" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B10" s="140" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D10" s="142" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46"/>
       <c r="G10" s="73" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="38">
       <c r="A11" s="82" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B11" s="138" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D11" s="84" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E11" s="111"/>
       <c r="F11" s="55"/>
       <c r="G11" s="80" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64" customHeight="1">
-      <c r="A12" s="181" t="s">
-        <v>524</v>
-      </c>
-      <c r="B12" s="192" t="s">
-        <v>525</v>
-      </c>
-      <c r="C12" s="183" t="s">
-        <v>292</v>
-      </c>
-      <c r="D12" s="184" t="s">
-        <v>275</v>
+      <c r="A12" s="185" t="s">
+        <v>521</v>
+      </c>
+      <c r="B12" s="195" t="s">
+        <v>522</v>
+      </c>
+      <c r="C12" s="187" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="188" t="s">
+        <v>274</v>
       </c>
       <c r="E12" s="111"/>
       <c r="F12" s="80" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="80" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H12" s="71"/>
       <c r="I12" s="71"/>
@@ -9345,16 +9301,16 @@
       <c r="Z12" s="71"/>
     </row>
     <row r="13" spans="1:26" ht="67" customHeight="1">
-      <c r="A13" s="181"/>
-      <c r="B13" s="192"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="184"/>
+      <c r="A13" s="185"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="188"/>
       <c r="E13" s="111"/>
       <c r="F13" s="80" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="80" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
@@ -9378,90 +9334,90 @@
     </row>
     <row r="14" spans="1:26" ht="76.5" customHeight="1">
       <c r="A14" s="135" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B14" s="140" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D14" s="141" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="72" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="73" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="77.25" customHeight="1">
       <c r="A15" s="82" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B15" s="138" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D15" s="139" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E15" s="111"/>
       <c r="F15" s="79" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="173" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="55" customHeight="1">
-      <c r="A16" s="181" t="s">
-        <v>339</v>
-      </c>
-      <c r="B16" s="190" t="s">
-        <v>422</v>
-      </c>
-      <c r="C16" s="183" t="s">
-        <v>283</v>
-      </c>
-      <c r="D16" s="184" t="s">
-        <v>341</v>
+      <c r="A16" s="185" t="s">
+        <v>338</v>
+      </c>
+      <c r="B16" s="196" t="s">
+        <v>419</v>
+      </c>
+      <c r="C16" s="187" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="188" t="s">
+        <v>340</v>
       </c>
       <c r="E16" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="185"/>
-      <c r="G16" s="186" t="s">
-        <v>320</v>
+      <c r="F16" s="189"/>
+      <c r="G16" s="190" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="46" customHeight="1">
-      <c r="A17" s="181"/>
-      <c r="B17" s="190"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="184"/>
+      <c r="A17" s="185"/>
+      <c r="B17" s="196"/>
+      <c r="C17" s="187"/>
+      <c r="D17" s="188"/>
       <c r="E17" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="185"/>
-      <c r="G17" s="186"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="190"/>
     </row>
     <row r="18" spans="1:7" ht="57">
       <c r="A18" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="B18" s="60" t="s">
         <v>342</v>
       </c>
-      <c r="B18" s="60" t="s">
-        <v>343</v>
-      </c>
       <c r="C18" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E18" s="46"/>
       <c r="F18" s="46"/>
@@ -10469,49 +10425,39 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="F16:F17"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5 C5 E5:G5">
-    <cfRule type="expression" dxfId="23" priority="49" stopIfTrue="1">
-      <formula>$C5="Sì"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A18:F18">
-    <cfRule type="expression" dxfId="22" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="50" stopIfTrue="1">
       <formula>$C18="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C12">
-    <cfRule type="expression" dxfId="21" priority="52" stopIfTrue="1">
+  <conditionalFormatting sqref="C4:C12 A5 E5:G5">
+    <cfRule type="expression" dxfId="13" priority="49" stopIfTrue="1">
+      <formula>$C4="Sì"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C16">
+    <cfRule type="expression" dxfId="12" priority="53" stopIfTrue="1">
+      <formula>$C14="Sì"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="11" priority="54" stopIfTrue="1">
       <formula>$C6="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C16">
-    <cfRule type="expression" dxfId="20" priority="53" stopIfTrue="1">
-      <formula>$C14="Sì"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4 E4:F4">
-    <cfRule type="expression" dxfId="19" priority="51" stopIfTrue="1">
+  <conditionalFormatting sqref="D4:F4">
+    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
       <formula>$C4="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="18" priority="54" stopIfTrue="1">
-      <formula>$C6="Sì"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E6:F16 E17">
-    <cfRule type="expression" dxfId="17" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="55" stopIfTrue="1">
       <formula>$C6="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G15">
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
       <formula>$C10="Sì"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>$C4="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -10556,62 +10502,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A1" s="179" t="s">
-        <v>531</v>
-      </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
+      <c r="A1" s="183" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
     </row>
     <row r="2" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A2" s="177" t="s">
-        <v>532</v>
-      </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
+      <c r="A2" s="182" t="s">
+        <v>529</v>
+      </c>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
     </row>
     <row r="3" spans="1:7" ht="40.5" customHeight="1">
       <c r="A3" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="C3" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>272</v>
-      </c>
       <c r="D3" s="42" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E3" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="G3" s="106" t="s">
         <v>275</v>
-      </c>
-      <c r="G3" s="106" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="50">
       <c r="A4" s="43" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
@@ -10619,16 +10565,16 @@
     </row>
     <row r="5" spans="1:7" ht="76">
       <c r="A5" s="43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E5" s="73" t="s">
         <v>41</v>
@@ -10638,16 +10584,16 @@
     </row>
     <row r="6" spans="1:7" ht="95">
       <c r="A6" s="43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D6" s="201" t="s">
-        <v>753</v>
+        <v>278</v>
+      </c>
+      <c r="D6" s="175" t="s">
+        <v>750</v>
       </c>
       <c r="E6" s="72"/>
       <c r="F6" s="46"/>
@@ -10655,16 +10601,16 @@
     </row>
     <row r="7" spans="1:7" ht="38">
       <c r="A7" s="57" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E7" s="111"/>
       <c r="F7" s="55"/>
@@ -10672,16 +10618,16 @@
     </row>
     <row r="8" spans="1:7" ht="57">
       <c r="A8" s="57" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E8" s="111"/>
       <c r="F8" s="55"/>
@@ -10689,16 +10635,16 @@
     </row>
     <row r="9" spans="1:7" ht="42.75" customHeight="1">
       <c r="A9" s="43" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
@@ -10706,37 +10652,37 @@
     </row>
     <row r="10" spans="1:7" ht="95">
       <c r="A10" s="57" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="79" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="80" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57">
       <c r="A11" s="57" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E11" s="111"/>
       <c r="F11" s="55"/>
@@ -10744,77 +10690,77 @@
     </row>
     <row r="12" spans="1:7" ht="133">
       <c r="A12" s="57" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E12" s="111"/>
       <c r="F12" s="80" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="80" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="80.25" customHeight="1">
       <c r="A13" s="43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C13" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="D13" s="45" t="s">
-        <v>280</v>
-      </c>
       <c r="E13" s="73" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F13" s="86"/>
       <c r="G13" s="86"/>
     </row>
     <row r="14" spans="1:7" ht="76">
       <c r="A14" s="57" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B14" s="144" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E14" s="79"/>
       <c r="F14" s="80" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="80" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="42" customHeight="1">
       <c r="A15" s="57" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E15" s="111"/>
       <c r="F15" s="55"/>
@@ -10822,16 +10768,16 @@
     </row>
     <row r="16" spans="1:7" ht="42" customHeight="1">
       <c r="A16" s="57" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E16" s="111"/>
       <c r="F16" s="55"/>
@@ -10842,32 +10788,32 @@
         <v>208</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E17" s="111"/>
       <c r="F17" s="55"/>
       <c r="G17" s="80" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="58.5" customHeight="1">
       <c r="A18" s="57" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E18" s="111"/>
       <c r="F18" s="55"/>
@@ -10875,16 +10821,16 @@
     </row>
     <row r="19" spans="1:7" ht="57">
       <c r="A19" s="43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E19" s="46"/>
       <c r="F19" s="46"/>
@@ -11880,44 +11826,44 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
   </mergeCells>
+  <conditionalFormatting sqref="A6:C6 E6:F6 A7:F11">
+    <cfRule type="expression" dxfId="7" priority="56" stopIfTrue="1">
+      <formula>$C6="Sì"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A12:C12">
-    <cfRule type="expression" dxfId="15" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="57" stopIfTrue="1">
       <formula>$C12="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:F5 A4:C4 E4:F4 A7:F11 A6:C6 E6:F6">
-    <cfRule type="expression" dxfId="14" priority="56" stopIfTrue="1">
+  <conditionalFormatting sqref="A4:F5">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>$C4="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:F19">
-    <cfRule type="expression" dxfId="13" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="58" stopIfTrue="1">
       <formula>$C15="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B14">
-    <cfRule type="expression" dxfId="12" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="59" stopIfTrue="1">
       <formula>$C13="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="11" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="60" stopIfTrue="1">
       <formula>$C14="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:F14">
-    <cfRule type="expression" dxfId="10" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="61" stopIfTrue="1">
       <formula>$C13="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 E12:G12 G14 G17">
-    <cfRule type="expression" dxfId="9" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="43" stopIfTrue="1">
       <formula>$C10="Sì"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
-      <formula>$C4="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -11940,7 +11886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AMJ1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -11953,30 +11899,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="193" t="s">
-        <v>557</v>
-      </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
+      <c r="A1" s="197" t="s">
+        <v>554</v>
+      </c>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
     </row>
     <row r="2" spans="1:4" ht="46.5" customHeight="1">
-      <c r="A2" s="177" t="s">
-        <v>558</v>
-      </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
+      <c r="A2" s="182" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="194"/>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
     </row>
     <row r="4" spans="1:4" ht="22">
       <c r="A4" s="146" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B4" s="146"/>
       <c r="C4" s="146"/>
@@ -12000,7 +11946,7 @@
     </row>
     <row r="7" spans="1:4" ht="22">
       <c r="A7" s="146" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="22">
@@ -12010,7 +11956,7 @@
     </row>
     <row r="9" spans="1:4" ht="22">
       <c r="A9" s="146" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1"/>
@@ -13030,177 +12976,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="193" t="s">
-        <v>562</v>
-      </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
+      <c r="A1" s="197" t="s">
+        <v>559</v>
+      </c>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
     </row>
     <row r="2" spans="1:4" ht="48" customHeight="1">
-      <c r="A2" s="177" t="s">
-        <v>563</v>
-      </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
+      <c r="A2" s="182" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="194"/>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
     </row>
     <row r="4" spans="1:4" ht="22">
       <c r="A4" s="146" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C4" s="146"/>
       <c r="D4" s="147"/>
     </row>
     <row r="5" spans="1:4" ht="22">
       <c r="A5" s="146" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C5" s="146"/>
       <c r="D5" s="147"/>
     </row>
     <row r="6" spans="1:4" ht="22">
       <c r="A6" s="146" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C6" s="146"/>
       <c r="D6" s="147"/>
     </row>
     <row r="7" spans="1:4" ht="22">
       <c r="A7" s="146" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C7" s="147"/>
       <c r="D7" s="147"/>
     </row>
     <row r="8" spans="1:4" ht="22">
       <c r="A8" s="146" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C8" s="147"/>
       <c r="D8" s="147"/>
     </row>
     <row r="9" spans="1:4" ht="22">
       <c r="A9" s="146" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C9" s="147"/>
       <c r="D9" s="147"/>
     </row>
     <row r="10" spans="1:4" ht="22">
       <c r="A10" s="146" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C10" s="147"/>
       <c r="D10" s="147"/>
     </row>
     <row r="11" spans="1:4" ht="22">
       <c r="A11" s="146" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C11" s="147"/>
       <c r="D11" s="147"/>
     </row>
     <row r="12" spans="1:4" ht="22">
       <c r="A12" s="146" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C12" s="147"/>
       <c r="D12" s="147"/>
     </row>
     <row r="13" spans="1:4" ht="22">
       <c r="A13" s="146" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C13" s="147"/>
       <c r="D13" s="147"/>
     </row>
     <row r="14" spans="1:4" ht="22">
       <c r="A14" s="146" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C14" s="147"/>
       <c r="D14" s="147"/>
     </row>
     <row r="15" spans="1:4" ht="22">
       <c r="A15" s="146" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C15" s="147"/>
       <c r="D15" s="147"/>
     </row>
     <row r="16" spans="1:4" ht="22">
       <c r="A16" s="146" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C16" s="147"/>
       <c r="D16" s="147"/>
     </row>
     <row r="17" spans="1:4" ht="22">
       <c r="A17" s="146" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C17" s="147"/>
       <c r="D17" s="147"/>
     </row>
     <row r="18" spans="1:4" ht="22">
       <c r="A18" s="146" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C18" s="147"/>
       <c r="D18" s="147"/>
     </row>
     <row r="19" spans="1:4" ht="22">
       <c r="A19" s="146" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C19" s="147"/>
       <c r="D19" s="147"/>
     </row>
     <row r="20" spans="1:4" ht="22">
       <c r="A20" s="146" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="22">
       <c r="A21" s="146" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="22">
       <c r="A22" s="146" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22">
       <c r="A23" s="146" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="22">
       <c r="A24" s="146" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="22">
       <c r="A25" s="146" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22">
       <c r="A26" s="146" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="22">
       <c r="A27" s="146" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="22">
@@ -14201,30 +14147,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="193" t="s">
-        <v>588</v>
-      </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
+      <c r="A1" s="197" t="s">
+        <v>585</v>
+      </c>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
     </row>
     <row r="2" spans="1:4" ht="46.5" customHeight="1">
-      <c r="A2" s="177" t="s">
-        <v>589</v>
-      </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
+      <c r="A2" s="182" t="s">
+        <v>586</v>
+      </c>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="194"/>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
     </row>
     <row r="4" spans="1:4" ht="22">
       <c r="A4" s="146" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B4" s="146"/>
       <c r="C4" s="146"/>
@@ -14232,7 +14178,7 @@
     </row>
     <row r="5" spans="1:4" ht="22">
       <c r="A5" s="146" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B5" s="146"/>
       <c r="C5" s="146"/>
@@ -14240,7 +14186,7 @@
     </row>
     <row r="6" spans="1:4" ht="22">
       <c r="A6" s="146" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B6" s="146"/>
       <c r="C6" s="146"/>
@@ -15255,7 +15201,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:AMJ999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -15267,33 +15215,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A1" s="193" t="s">
-        <v>593</v>
-      </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
+      <c r="A1" s="197" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
     </row>
     <row r="2" spans="1:3" ht="51" customHeight="1">
-      <c r="A2" s="177" t="s">
-        <v>594</v>
-      </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
+      <c r="A2" s="182" t="s">
+        <v>591</v>
+      </c>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="23">
       <c r="A3" s="145" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B3" s="145" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C3" s="148" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="23">
       <c r="A4" s="149" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B4" s="147"/>
       <c r="C4" s="147"/>
@@ -15301,35 +15249,35 @@
     <row r="5" spans="1:3" s="4" customFormat="1" ht="23">
       <c r="A5" s="147"/>
       <c r="B5" s="149" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C5" s="147"/>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="23">
       <c r="A6" s="147"/>
       <c r="B6" s="149" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C6" s="147"/>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="23">
       <c r="A7" s="147"/>
       <c r="B7" s="149" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C7" s="147"/>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="23">
       <c r="A8" s="147"/>
       <c r="B8" s="149" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C8" s="147"/>
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1" ht="23">
       <c r="A9" s="147"/>
       <c r="B9" s="149" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C9" s="147"/>
     </row>
@@ -15339,7 +15287,7 @@
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="23">
       <c r="A11" s="149" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B11" s="147"/>
       <c r="C11" s="147"/>
@@ -15347,27 +15295,27 @@
     <row r="12" spans="1:3" s="4" customFormat="1" ht="23">
       <c r="A12" s="147"/>
       <c r="B12" s="149" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C12" s="147"/>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="23">
       <c r="A13" s="147"/>
       <c r="B13" s="149" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C13" s="147"/>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" ht="23">
       <c r="A14" s="147"/>
       <c r="B14" s="149" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C14" s="147"/>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" ht="23">
       <c r="A15" s="149" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B15" s="147"/>
       <c r="C15" s="147"/>
@@ -15375,14 +15323,14 @@
     <row r="16" spans="1:3" s="4" customFormat="1" ht="23">
       <c r="A16" s="147"/>
       <c r="B16" s="149" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C16" s="147"/>
     </row>
     <row r="17" spans="1:3" s="4" customFormat="1" ht="22">
       <c r="A17" s="146"/>
       <c r="B17" s="150" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C17" s="147"/>
     </row>
@@ -16629,114 +16577,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33.75" customHeight="1">
-      <c r="A1" s="193" t="s">
-        <v>611</v>
-      </c>
-      <c r="B1" s="193"/>
+      <c r="A1" s="197" t="s">
+        <v>608</v>
+      </c>
+      <c r="B1" s="197"/>
     </row>
     <row r="2" spans="1:2" ht="46" customHeight="1">
-      <c r="A2" s="177" t="s">
-        <v>612</v>
-      </c>
-      <c r="B2" s="177"/>
+      <c r="A2" s="182" t="s">
+        <v>609</v>
+      </c>
+      <c r="B2" s="182"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A3" s="194"/>
-      <c r="B3" s="194"/>
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
     </row>
     <row r="4" spans="1:2" ht="22">
       <c r="A4" s="146" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B4" s="147"/>
     </row>
     <row r="5" spans="1:2" ht="22">
       <c r="A5" s="146" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B5" s="147"/>
     </row>
     <row r="6" spans="1:2" ht="22">
       <c r="A6" s="146" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B6" s="147"/>
     </row>
     <row r="7" spans="1:2" ht="22">
       <c r="A7" s="146" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B7" s="147"/>
     </row>
     <row r="8" spans="1:2" ht="22">
       <c r="A8" s="146" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B8" s="147"/>
     </row>
     <row r="9" spans="1:2" ht="22">
       <c r="A9" s="146" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B9" s="147"/>
     </row>
     <row r="10" spans="1:2" ht="22">
       <c r="A10" s="146" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B10" s="147"/>
     </row>
     <row r="11" spans="1:2" ht="22">
       <c r="A11" s="146" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B11" s="147"/>
     </row>
     <row r="12" spans="1:2" ht="22">
       <c r="A12" s="146" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B12" s="147"/>
     </row>
     <row r="13" spans="1:2" ht="22">
       <c r="A13" s="146" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B13" s="147"/>
     </row>
     <row r="14" spans="1:2" ht="22">
       <c r="A14" s="146" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B14" s="147"/>
     </row>
     <row r="15" spans="1:2" ht="22">
       <c r="A15" s="146" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B15" s="147"/>
     </row>
     <row r="16" spans="1:2" ht="22">
       <c r="A16" s="146" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B16" s="147"/>
     </row>
     <row r="17" spans="1:2" ht="22">
       <c r="A17" s="146" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B17" s="147"/>
     </row>
     <row r="18" spans="1:2" ht="22">
       <c r="A18" s="146" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B18" s="147"/>
     </row>
     <row r="19" spans="1:2" ht="22">
       <c r="A19" s="146" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B19" s="147"/>
     </row>
@@ -17755,38 +17703,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="195" t="s">
-        <v>629</v>
-      </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
+      <c r="A1" s="199" t="s">
+        <v>626</v>
+      </c>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
     </row>
     <row r="2" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A2" s="177" t="s">
-        <v>630</v>
-      </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
+      <c r="A2" s="182" t="s">
+        <v>627</v>
+      </c>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="145" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B3" s="145" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C3" s="148" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D3" s="148" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="152" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B4" s="157"/>
       <c r="C4" s="157"/>
@@ -17794,7 +17742,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="152" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B5" s="105"/>
       <c r="C5" s="105"/>
@@ -17802,7 +17750,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="152" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B6" s="105"/>
       <c r="C6" s="105"/>
@@ -17810,7 +17758,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="152" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B7" s="105"/>
       <c r="C7" s="105"/>
@@ -17818,7 +17766,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="152" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B8" s="105"/>
       <c r="C8" s="105"/>
@@ -17826,7 +17774,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="152" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B9" s="105"/>
       <c r="C9" s="105"/>
@@ -17834,7 +17782,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="152" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B10" s="105"/>
       <c r="C10" s="105"/>
@@ -17842,7 +17790,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="152" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B11" s="105"/>
       <c r="C11" s="105"/>
@@ -17850,7 +17798,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="152" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
@@ -17858,7 +17806,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="152" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -20273,38 +20221,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1">
-      <c r="A1" s="195" t="s">
-        <v>642</v>
-      </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
+      <c r="A1" s="199" t="s">
+        <v>639</v>
+      </c>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
     </row>
     <row r="2" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A2" s="196" t="s">
-        <v>643</v>
-      </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
+      <c r="A2" s="200" t="s">
+        <v>640</v>
+      </c>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="145" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B3" s="145" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C3" s="148" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D3" s="148" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="153" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B4" s="155"/>
       <c r="C4" s="155"/>
@@ -20313,7 +20261,7 @@
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="155"/>
       <c r="B5" s="153" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C5" s="155"/>
       <c r="D5" s="158"/>
@@ -20322,7 +20270,7 @@
       <c r="A6" s="155"/>
       <c r="B6" s="155"/>
       <c r="C6" s="153" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D6" s="158"/>
     </row>
@@ -20330,14 +20278,14 @@
       <c r="A7" s="155"/>
       <c r="B7" s="155"/>
       <c r="C7" s="153" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D7" s="158"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="155"/>
       <c r="B8" s="153" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C8" s="155"/>
       <c r="D8" s="158"/>
@@ -20346,7 +20294,7 @@
       <c r="A9" s="155"/>
       <c r="B9" s="155"/>
       <c r="C9" s="153" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D9" s="158"/>
     </row>
@@ -20354,7 +20302,7 @@
       <c r="A10" s="155"/>
       <c r="B10" s="155"/>
       <c r="C10" s="153" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D10" s="158"/>
     </row>
@@ -20362,7 +20310,7 @@
       <c r="A11" s="155"/>
       <c r="B11" s="155"/>
       <c r="C11" s="153" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D11" s="158"/>
     </row>
@@ -20370,7 +20318,7 @@
       <c r="A12" s="155"/>
       <c r="B12" s="155"/>
       <c r="C12" s="153" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D12" s="158"/>
     </row>
@@ -20378,7 +20326,7 @@
       <c r="A13" s="155"/>
       <c r="B13" s="155"/>
       <c r="C13" s="153" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D13" s="158"/>
     </row>
@@ -20386,14 +20334,14 @@
       <c r="A14" s="155"/>
       <c r="B14" s="155"/>
       <c r="C14" s="153" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D14" s="158"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="155"/>
       <c r="B15" s="153" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C15" s="155"/>
       <c r="D15" s="158"/>
@@ -20402,7 +20350,7 @@
       <c r="A16" s="155"/>
       <c r="B16" s="155"/>
       <c r="C16" s="153" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D16" s="158"/>
     </row>
@@ -20410,14 +20358,14 @@
       <c r="A17" s="155"/>
       <c r="B17" s="155"/>
       <c r="C17" s="153" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D17" s="158"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="155"/>
       <c r="B18" s="153" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C18" s="155"/>
       <c r="D18" s="158"/>
@@ -20426,7 +20374,7 @@
       <c r="A19" s="155"/>
       <c r="B19" s="155"/>
       <c r="C19" s="153" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D19" s="158"/>
     </row>
@@ -20434,13 +20382,13 @@
       <c r="A20" s="155"/>
       <c r="B20" s="155"/>
       <c r="C20" s="153" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D20" s="158"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="153" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B21" s="159"/>
       <c r="C21" s="159"/>
@@ -20449,7 +20397,7 @@
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="155"/>
       <c r="B22" s="153" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C22" s="155"/>
       <c r="D22" s="158"/>
@@ -20458,13 +20406,13 @@
       <c r="A23" s="155"/>
       <c r="B23" s="155"/>
       <c r="C23" s="153" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D23" s="158"/>
     </row>
     <row r="24" spans="1:4" ht="24" customHeight="1">
       <c r="A24" s="153" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B24" s="155"/>
       <c r="C24" s="155"/>
@@ -20473,7 +20421,7 @@
     <row r="25" spans="1:4" ht="24" customHeight="1">
       <c r="A25" s="155"/>
       <c r="B25" s="153" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C25" s="159"/>
       <c r="D25" s="158"/>
@@ -20482,14 +20430,14 @@
       <c r="A26" s="155"/>
       <c r="B26" s="155"/>
       <c r="C26" s="153" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D26" s="158"/>
     </row>
     <row r="27" spans="1:4" ht="24" customHeight="1">
       <c r="A27" s="155"/>
       <c r="B27" s="153" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C27" s="159"/>
       <c r="D27" s="158"/>
@@ -20498,14 +20446,14 @@
       <c r="A28" s="155"/>
       <c r="B28" s="155"/>
       <c r="C28" s="153" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D28" s="158"/>
     </row>
     <row r="29" spans="1:4" ht="24" customHeight="1">
       <c r="A29" s="155"/>
       <c r="B29" s="153" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C29" s="155"/>
       <c r="D29" s="158"/>
@@ -20514,13 +20462,13 @@
       <c r="A30" s="155"/>
       <c r="B30" s="155"/>
       <c r="C30" s="153" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D30" s="158"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="153" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B31" s="155"/>
       <c r="C31" s="155"/>
@@ -20529,7 +20477,7 @@
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="155"/>
       <c r="B32" s="153" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C32" s="159"/>
       <c r="D32" s="158"/>
@@ -20538,7 +20486,7 @@
       <c r="A33" s="155"/>
       <c r="B33" s="155"/>
       <c r="C33" s="153" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D33" s="158"/>
     </row>
@@ -20546,14 +20494,14 @@
       <c r="A34" s="155"/>
       <c r="B34" s="155"/>
       <c r="C34" s="153" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D34" s="158"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="155"/>
       <c r="B35" s="153" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C35" s="155"/>
       <c r="D35" s="158"/>
@@ -20562,7 +20510,7 @@
       <c r="A36" s="155"/>
       <c r="B36" s="155"/>
       <c r="C36" s="153" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D36" s="158"/>
     </row>
@@ -20570,7 +20518,7 @@
       <c r="A37" s="155"/>
       <c r="B37" s="155"/>
       <c r="C37" s="153" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D37" s="158"/>
     </row>
@@ -20578,13 +20526,13 @@
       <c r="A38" s="155"/>
       <c r="B38" s="155"/>
       <c r="C38" s="153" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D38" s="158"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="153" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B39" s="159"/>
       <c r="C39" s="159"/>
@@ -20593,7 +20541,7 @@
     <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="155"/>
       <c r="B40" s="153" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C40" s="159"/>
       <c r="D40" s="158"/>
@@ -20602,7 +20550,7 @@
       <c r="A41" s="155"/>
       <c r="B41" s="155"/>
       <c r="C41" s="153" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D41" s="158"/>
     </row>
@@ -21633,38 +21581,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="193" t="s">
-        <v>676</v>
-      </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
+      <c r="A1" s="197" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
     </row>
     <row r="2" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A2" s="177" t="s">
-        <v>677</v>
-      </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
+      <c r="A2" s="182" t="s">
+        <v>674</v>
+      </c>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="145" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B3" s="145" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C3" s="148" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D3" s="148" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="146" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C4" s="146"/>
       <c r="D4" s="147"/>
@@ -21672,7 +21620,7 @@
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="146"/>
       <c r="B5" s="146" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C5" s="146"/>
       <c r="D5" s="147"/>
@@ -21681,7 +21629,7 @@
       <c r="A6" s="146"/>
       <c r="B6" s="146"/>
       <c r="C6" s="146" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D6" s="147"/>
     </row>
@@ -21689,14 +21637,14 @@
       <c r="A7" s="146"/>
       <c r="B7" s="146"/>
       <c r="C7" s="15" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D7" s="147"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="146"/>
       <c r="B8" s="146" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C8" s="146"/>
       <c r="D8" s="147"/>
@@ -21704,35 +21652,35 @@
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="146"/>
       <c r="C9" s="146" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D9" s="147"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="146"/>
       <c r="C10" s="146" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D10" s="147"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="146" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="B12" s="146" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="B13" s="146" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="B14" s="15" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1"/>
@@ -22746,30 +22694,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="193" t="s">
-        <v>687</v>
-      </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
+      <c r="A1" s="197" t="s">
+        <v>684</v>
+      </c>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
     </row>
     <row r="2" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A2" s="177" t="s">
-        <v>688</v>
-      </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
+      <c r="A2" s="182" t="s">
+        <v>685</v>
+      </c>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="194"/>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
     </row>
     <row r="4" spans="1:4" ht="21.75" customHeight="1">
       <c r="A4" s="146" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B4" s="160"/>
       <c r="C4" s="146"/>
@@ -22777,7 +22725,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="146" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B5" s="146"/>
       <c r="C5" s="146"/>
@@ -22785,7 +22733,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="146" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B6" s="146"/>
       <c r="C6" s="146"/>
@@ -22793,7 +22741,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="146" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B7" s="146"/>
       <c r="C7" s="146"/>
@@ -22801,7 +22749,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="146" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B8" s="146"/>
       <c r="C8" s="146"/>
@@ -22809,7 +22757,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="146" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B9" s="146"/>
       <c r="C9" s="146"/>
@@ -22817,14 +22765,14 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="146" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C10" s="146"/>
       <c r="D10" s="147"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="146" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B11" s="146"/>
       <c r="C11" s="147"/>
@@ -22832,7 +22780,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="146" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B12" s="146"/>
       <c r="C12" s="147"/>
@@ -22840,7 +22788,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="146" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B13" s="146"/>
       <c r="C13" s="147"/>
@@ -22848,7 +22796,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="146" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B14" s="146"/>
       <c r="C14" s="147"/>
@@ -22856,7 +22804,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="146" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B15" s="146"/>
       <c r="C15" s="147"/>
@@ -22864,7 +22812,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="146" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B16" s="146"/>
       <c r="C16" s="147"/>
@@ -22872,7 +22820,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="146" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B17" s="146"/>
       <c r="C17" s="147"/>
@@ -22880,7 +22828,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="146" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B18" s="146"/>
       <c r="C18" s="147"/>
@@ -22888,7 +22836,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="146" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B19" s="146"/>
       <c r="C19" s="147"/>
@@ -22896,7 +22844,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="146" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B20" s="146"/>
       <c r="C20" s="147"/>
@@ -22904,7 +22852,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="146" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B21" s="146"/>
       <c r="C21" s="147"/>
@@ -22912,7 +22860,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="146" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B22" s="146"/>
       <c r="C22" s="147"/>
@@ -22920,7 +22868,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="146" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B23" s="146"/>
       <c r="C23" s="147"/>
@@ -22928,7 +22876,7 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="146" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B24" s="146"/>
       <c r="C24" s="147"/>
@@ -22936,13 +22884,13 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="146" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B25" s="146"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="146" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B26" s="146"/>
     </row>
@@ -22954,98 +22902,98 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="146" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B28" s="146"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="146" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B29" s="146"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" s="146" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B30" s="146"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="146" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B31" s="146"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="146" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B32" s="146"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1">
       <c r="A33" s="146" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B33" s="146"/>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
       <c r="A34" s="146" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
       <c r="A35" s="146" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1">
       <c r="A36" s="146" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1">
       <c r="A37" s="146" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
       <c r="A38" s="146" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="146" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1">
       <c r="A40" s="146" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1">
       <c r="A41" s="146" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1">
       <c r="A42" s="146" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1">
       <c r="A43" s="146" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1">
       <c r="A44" s="146" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
       <c r="A45" s="146" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1"/>
@@ -24030,30 +23978,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="195" t="s">
-        <v>727</v>
-      </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
+      <c r="A1" s="199" t="s">
+        <v>724</v>
+      </c>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
     </row>
     <row r="2" spans="1:4" ht="70.5" customHeight="1">
-      <c r="A2" s="197" t="s">
-        <v>728</v>
-      </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
+      <c r="A2" s="201" t="s">
+        <v>725</v>
+      </c>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="194"/>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="146" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B4" s="146"/>
       <c r="C4" s="146"/>
@@ -24061,7 +24009,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="146" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B5" s="146"/>
       <c r="C5" s="146"/>
@@ -24069,7 +24017,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="146" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B6" s="146"/>
       <c r="C6" s="146"/>
@@ -24077,7 +24025,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="146" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B7" s="146"/>
       <c r="C7" s="146"/>
@@ -24085,7 +24033,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="146" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B8" s="146"/>
       <c r="C8" s="146"/>
@@ -24093,7 +24041,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="146" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B9" s="146"/>
       <c r="C9" s="146"/>
@@ -24101,7 +24049,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="146" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B10" s="146"/>
       <c r="C10" s="146"/>
@@ -24109,7 +24057,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="146" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B11" s="146"/>
       <c r="C11" s="146"/>
@@ -24117,7 +24065,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="146" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B12" s="146"/>
       <c r="C12" s="146"/>
@@ -25128,7 +25076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:AMJ999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -25144,16 +25092,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="161" t="s">
+        <v>735</v>
+      </c>
+      <c r="B1" s="161" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1" s="161" t="s">
+        <v>737</v>
+      </c>
+      <c r="D1" s="161" t="s">
         <v>738</v>
-      </c>
-      <c r="B1" s="161" t="s">
-        <v>739</v>
-      </c>
-      <c r="C1" s="161" t="s">
-        <v>740</v>
-      </c>
-      <c r="D1" s="161" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35.25" customHeight="1">
@@ -25161,89 +25109,89 @@
         <v>45322</v>
       </c>
       <c r="B2" s="163" t="s">
+        <v>739</v>
+      </c>
+      <c r="C2" s="164" t="s">
+        <v>751</v>
+      </c>
+      <c r="D2" s="165" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19">
+      <c r="A3" s="202">
+        <v>45372</v>
+      </c>
+      <c r="B3" s="204" t="s">
+        <v>741</v>
+      </c>
+      <c r="C3" s="206" t="s">
+        <v>751</v>
+      </c>
+      <c r="D3" s="166" t="s">
         <v>742</v>
       </c>
-      <c r="C2" s="164" t="s">
-        <v>754</v>
-      </c>
-      <c r="D2" s="165" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="38">
+      <c r="A4" s="202"/>
+      <c r="B4" s="204"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="167" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19">
-      <c r="A3" s="198">
-        <v>45372</v>
-      </c>
-      <c r="B3" s="199" t="s">
+    <row r="5" spans="1:4" ht="38">
+      <c r="A5" s="202"/>
+      <c r="B5" s="204"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="167" t="s">
         <v>744</v>
       </c>
-      <c r="C3" s="200" t="s">
-        <v>754</v>
-      </c>
-      <c r="D3" s="166" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="38">
+      <c r="A6" s="202"/>
+      <c r="B6" s="204"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="167" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="38">
-      <c r="A4" s="198"/>
-      <c r="B4" s="199"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="167" t="s">
+    <row r="7" spans="1:4" ht="38">
+      <c r="A7" s="202"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="167" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="38">
-      <c r="A5" s="198"/>
-      <c r="B5" s="199"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="167" t="s">
+    <row r="8" spans="1:4" ht="38">
+      <c r="A8" s="202"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="167" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="38">
-      <c r="A6" s="198"/>
-      <c r="B6" s="199"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="167" t="s">
+    <row r="9" spans="1:4" ht="57">
+      <c r="A9" s="203"/>
+      <c r="B9" s="205"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="167" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="38">
-      <c r="A7" s="198"/>
-      <c r="B7" s="199"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="167" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="38">
-      <c r="A8" s="198"/>
-      <c r="B8" s="199"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="167" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="57">
-      <c r="A9" s="202"/>
-      <c r="B9" s="203"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="167" t="s">
+    <row r="10" spans="1:4" ht="40" customHeight="1">
+      <c r="A10" s="176">
+        <v>45701</v>
+      </c>
+      <c r="B10" s="179" t="s">
+        <v>752</v>
+      </c>
+      <c r="C10" s="177" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
-      <c r="A10" s="205">
-        <v>45701</v>
-      </c>
-      <c r="B10" s="208" t="s">
-        <v>755</v>
-      </c>
-      <c r="C10" s="206" t="s">
-        <v>754</v>
-      </c>
-      <c r="D10" s="207" t="s">
-        <v>756</v>
+      <c r="D10" s="178" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
@@ -27349,16 +27297,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
     </row>
     <row r="2" spans="1:8" s="41" customFormat="1" ht="22">
       <c r="A2" s="40" t="s">
@@ -28374,10 +28322,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ1048575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -28394,671 +28342,661 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="40.5" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="181" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
     </row>
     <row r="2" spans="1:27" ht="31.5" customHeight="1">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-    </row>
-    <row r="3" spans="1:27" ht="31.5" customHeight="1">
-      <c r="A3" s="178" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+    </row>
+    <row r="3" spans="1:27" ht="40.5" customHeight="1">
+      <c r="A3" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-    </row>
-    <row r="4" spans="1:27" ht="40.5" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="B3" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="C3" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="D3" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="E3" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="F3" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="G3" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="G4" s="42" t="s">
+    </row>
+    <row r="4" spans="1:27" ht="89.25" customHeight="1">
+      <c r="A4" s="43" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="89.25" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>752</v>
-      </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-    </row>
-    <row r="6" spans="1:27" ht="38">
-      <c r="A6" s="50" t="s">
+      <c r="D4" s="46" t="s">
+        <v>749</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+    </row>
+    <row r="5" spans="1:27" ht="38">
+      <c r="A5" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="C5" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="D5" s="53" t="s">
         <v>283</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56" t="s">
         <v>284</v>
       </c>
-      <c r="E6" s="54"/>
+    </row>
+    <row r="6" spans="1:27" ht="95">
+      <c r="A6" s="57" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>749</v>
+      </c>
+      <c r="E6" s="55"/>
       <c r="F6" s="55"/>
-      <c r="G6" s="56" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="95">
-      <c r="A7" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" s="58" t="s">
+      <c r="G6" s="59"/>
+    </row>
+    <row r="7" spans="1:27" ht="76">
+      <c r="A7" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="C7" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>752</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="59"/>
+      <c r="B7" s="60" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>750</v>
+      </c>
+      <c r="E7" s="62"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:27" ht="76">
-      <c r="A8" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="B8" s="60" t="s">
+      <c r="A8" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>753</v>
-      </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-    </row>
-    <row r="9" spans="1:27" ht="76">
+      <c r="B8" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="66" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="45.75" customHeight="1">
       <c r="A9" s="63" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E9" s="55"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="66" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A10" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>296</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>283</v>
-      </c>
-      <c r="D10" s="55" t="s">
+      <c r="G9" s="55"/>
+    </row>
+    <row r="10" spans="1:27" ht="70.5" customHeight="1">
+      <c r="A10" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-    </row>
-    <row r="11" spans="1:27" ht="70.5" customHeight="1">
+      <c r="B10" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10" s="68"/>
+      <c r="F10" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="45"/>
+    </row>
+    <row r="11" spans="1:27" ht="95">
       <c r="A11" s="43" t="s">
-        <v>298</v>
-      </c>
-      <c r="B11" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="61" t="s">
         <v>299</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="170" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="45"/>
-    </row>
-    <row r="12" spans="1:27" ht="95">
-      <c r="A12" s="43" t="s">
-        <v>301</v>
+      <c r="E11" s="61"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="69" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="78" customHeight="1">
+      <c r="A12" s="70" t="s">
+        <v>302</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E12" s="61"/>
       <c r="F12" s="46"/>
-      <c r="G12" s="69" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="78" customHeight="1">
+      <c r="G12" s="45"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+    </row>
+    <row r="13" spans="1:27" ht="57">
       <c r="A13" s="70" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E13" s="61"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-    </row>
-    <row r="14" spans="1:27" ht="57">
-      <c r="A14" s="70" t="s">
-        <v>305</v>
-      </c>
-      <c r="B14" s="44" t="s">
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+    </row>
+    <row r="14" spans="1:27" ht="76.5" customHeight="1">
+      <c r="A14" s="43" t="s">
         <v>306</v>
       </c>
+      <c r="B14" s="67" t="s">
+        <v>307</v>
+      </c>
       <c r="C14" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" s="68"/>
+      <c r="F14" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="73" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="57">
+      <c r="A15" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="E15" s="68"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+    </row>
+    <row r="16" spans="1:27" ht="57">
+      <c r="A16" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="D14" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
-    </row>
-    <row r="15" spans="1:27" ht="76.5" customHeight="1">
-      <c r="A15" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="B15" s="67" t="s">
-        <v>308</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="73" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="57">
-      <c r="A16" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>311</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>312</v>
-      </c>
-      <c r="E16" s="68"/>
+      <c r="E16" s="74" t="s">
+        <v>314</v>
+      </c>
       <c r="F16" s="46"/>
       <c r="G16" s="45"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-    </row>
-    <row r="17" spans="1:27" ht="57">
-      <c r="A17" s="70" t="s">
-        <v>313</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="E17" s="74" t="s">
+    </row>
+    <row r="17" spans="1:27" ht="72" customHeight="1">
+      <c r="A17" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="45"/>
-    </row>
-    <row r="18" spans="1:27" ht="72" customHeight="1">
-      <c r="A18" s="57" t="s">
+      <c r="B17" s="58" t="s">
         <v>316</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="C17" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="59"/>
+    </row>
+    <row r="18" spans="1:27" ht="57">
+      <c r="A18" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="C18" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="D18" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="59"/>
-    </row>
-    <row r="19" spans="1:27" ht="57">
-      <c r="A19" s="43" t="s">
+      <c r="B18" s="76" t="s">
         <v>318</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="C18" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="46"/>
+      <c r="G18" s="69" t="s">
         <v>319</v>
       </c>
-      <c r="C19" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="69" t="s">
+    </row>
+    <row r="19" spans="1:27" ht="60.75" customHeight="1">
+      <c r="A19" s="57" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" ht="60.75" customHeight="1">
-      <c r="A20" s="57" t="s">
+      <c r="B19" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="C19" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>299</v>
+      </c>
+      <c r="E19" s="77"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+    </row>
+    <row r="20" spans="1:27" ht="74.25" customHeight="1">
+      <c r="A20" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="C20" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="77" t="s">
-        <v>300</v>
-      </c>
-      <c r="E20" s="77"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-    </row>
-    <row r="21" spans="1:27" ht="74.25" customHeight="1">
+      <c r="B20" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" s="61"/>
+      <c r="F20" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="73" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="72.75" customHeight="1">
       <c r="A21" s="70" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E21" s="61"/>
-      <c r="F21" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="73" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="72.75" customHeight="1">
-      <c r="A22" s="70" t="s">
-        <v>325</v>
-      </c>
-      <c r="B22" s="44" t="s">
+      <c r="F21" s="172" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="171" t="s">
         <v>326</v>
       </c>
-      <c r="C22" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="172" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="171" t="s">
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+    </row>
+    <row r="22" spans="1:27" ht="74.25" customHeight="1">
+      <c r="A22" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="58" t="s">
         <v>327</v>
       </c>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-    </row>
-    <row r="23" spans="1:27" ht="74.25" customHeight="1">
+      <c r="C22" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="E22" s="77"/>
+      <c r="F22" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="80" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="79.5" customHeight="1">
       <c r="A23" s="78" t="s">
-        <v>208</v>
+        <v>330</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="E23" s="77"/>
-      <c r="F23" s="79" t="s">
-        <v>33</v>
+      <c r="F23" s="80" t="s">
+        <v>27</v>
       </c>
       <c r="G23" s="80" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="79.5" customHeight="1">
-      <c r="A24" s="78" t="s">
-        <v>331</v>
-      </c>
-      <c r="B24" s="58" t="s">
         <v>332</v>
       </c>
-      <c r="C24" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="D24" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="80" t="s">
-        <v>27</v>
+    </row>
+    <row r="24" spans="1:27" ht="69.75" customHeight="1">
+      <c r="A24" s="57" t="s">
+        <v>333</v>
+      </c>
+      <c r="B24" s="81" t="s">
+        <v>334</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="E24" s="54"/>
+      <c r="F24" s="79" t="s">
+        <v>29</v>
       </c>
       <c r="G24" s="80" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="69.75" customHeight="1">
-      <c r="A25" s="57" t="s">
-        <v>334</v>
-      </c>
-      <c r="B25" s="81" t="s">
         <v>335</v>
       </c>
-      <c r="C25" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>275</v>
-      </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="80" t="s">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+    </row>
+    <row r="25" spans="1:27" ht="99.75" customHeight="1">
+      <c r="A25" s="78" t="s">
         <v>336</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-    </row>
-    <row r="26" spans="1:27" ht="99.75" customHeight="1">
-      <c r="A26" s="78" t="s">
+      <c r="B25" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="C25" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="D25" s="77" t="s">
+        <v>299</v>
+      </c>
+      <c r="E25" s="77"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
+    </row>
+    <row r="26" spans="1:27" ht="38">
+      <c r="A26" s="82" t="s">
         <v>338</v>
       </c>
+      <c r="B26" s="83" t="s">
+        <v>339</v>
+      </c>
       <c r="C26" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="D26" s="77" t="s">
-        <v>300</v>
-      </c>
-      <c r="E26" s="77"/>
+        <v>282</v>
+      </c>
+      <c r="D26" s="84" t="s">
+        <v>340</v>
+      </c>
+      <c r="E26" s="85" t="s">
+        <v>42</v>
+      </c>
       <c r="F26" s="55"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="49"/>
+      <c r="G26" s="66" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="27" spans="1:27" ht="38">
-      <c r="A27" s="82" t="s">
-        <v>339</v>
-      </c>
-      <c r="B27" s="83" t="s">
-        <v>340</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="D27" s="84" t="s">
+      <c r="A27" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="E27" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="66" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="38">
-      <c r="A28" s="43" t="s">
+      <c r="B27" s="60" t="s">
         <v>342</v>
       </c>
-      <c r="B28" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D28" s="61" t="s">
-        <v>312</v>
-      </c>
-      <c r="E28" s="86"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-    </row>
+      <c r="C27" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="E27" s="86"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1"/>
     <row r="29" spans="1:27" ht="15.75" customHeight="1"/>
     <row r="30" spans="1:27" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:27" ht="15.75" customHeight="1"/>
@@ -30030,58 +29968,55 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1048574" ht="12.25" customHeight="1"/>
     <row r="1048575" ht="12.25" customHeight="1"/>
-    <row r="1048576" ht="12.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A19 C19:F19 A28:G28">
-    <cfRule type="expression" dxfId="75" priority="2" stopIfTrue="1">
-      <formula>$C19="Sì"</formula>
+  <conditionalFormatting sqref="A18 C18:F18 A27:G27">
+    <cfRule type="expression" dxfId="71" priority="2" stopIfTrue="1">
+      <formula>$C18="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:G18 A20:G26">
-    <cfRule type="expression" dxfId="74" priority="1" stopIfTrue="1">
-      <formula>$C5="Sì"</formula>
+  <conditionalFormatting sqref="A4:G17 A19:G25">
+    <cfRule type="expression" dxfId="70" priority="1" stopIfTrue="1">
+      <formula>$C4="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="73" priority="4" stopIfTrue="1">
-      <formula>$C27="Sì"</formula>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="69" priority="4" stopIfTrue="1">
+      <formula>$C26="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="expression" dxfId="72" priority="5" stopIfTrue="1">
-      <formula>$C27="Sì"</formula>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="68" priority="5" stopIfTrue="1">
+      <formula>$C26="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="G6" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="G9" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="F11" location="'Tipologia COME FARE PER'!A1" display="Come fare per" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="G12" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="F15" location="'Tipologia STRUTTURA'!A1" display="Struttura" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="G15" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="E17" location="'Tassonomia PUNTO DI CONTATTO'!A1" display="Tipi di Punto di Contatto" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="E19" location="Tassonomia UTENTI" display="Utenti" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="G19" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
-    <hyperlink ref="F21" location="'Tipologia UNITÀ ORGANIZZATIVA'!A1" display="Unità organizzativa" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
-    <hyperlink ref="G21" r:id="rId7" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
-    <hyperlink ref="F22" location="'Tipologia PERSONA'!A1" display="Persona" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
-    <hyperlink ref="G22" r:id="rId8" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
-    <hyperlink ref="F23" location="'Tipologia DOCUMENTO'!A1" display="Documento" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
-    <hyperlink ref="G23" r:id="rId9" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
-    <hyperlink ref="F24" location="'Tipologia SERVIZIO'!A1" display="Servizio" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
-    <hyperlink ref="G24" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
-    <hyperlink ref="F25" location="'Tipologia NOTIZIA E COMUNICATO'!A1" display="Notizia e comunicato" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
-    <hyperlink ref="G25" r:id="rId11" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
-    <hyperlink ref="E27" location="'Tassonomia ARGOMENTI'!A1" display="Argomenti" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
-    <hyperlink ref="G27" r:id="rId12" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="G8" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="F10" location="'Tipologia COME FARE PER'!A1" display="Come fare per" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="G11" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="F14" location="'Tipologia STRUTTURA'!A1" display="Struttura" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="G14" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="E16" location="'Tassonomia PUNTO DI CONTATTO'!A1" display="Tipi di Punto di Contatto" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="E18" location="Tassonomia UTENTI" display="Utenti" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="G18" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="F20" location="'Tipologia UNITÀ ORGANIZZATIVA'!A1" display="Unità organizzativa" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="G20" r:id="rId6" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="F21" location="'Tipologia PERSONA'!A1" display="Persona" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="G21" r:id="rId7" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="F22" location="'Tipologia DOCUMENTO'!A1" display="Documento" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="G22" r:id="rId8" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="F23" location="'Tipologia SERVIZIO'!A1" display="Servizio" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="G23" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="F24" location="'Tipologia NOTIZIA E COMUNICATO'!A1" display="Notizia e comunicato" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="G24" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="E26" location="'Tassonomia ARGOMENTI'!A1" display="Argomenti" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
+    <hyperlink ref="G26" r:id="rId11" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -30090,10 +30025,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ1048575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -30110,240 +30045,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="183" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+    </row>
+    <row r="2" spans="1:7" ht="58" customHeight="1">
+      <c r="A2" s="182" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-    </row>
-    <row r="2" spans="1:7" ht="58" customHeight="1">
-      <c r="A2" s="177" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+    </row>
+    <row r="3" spans="1:7" ht="45" customHeight="1">
+      <c r="A3" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="57">
+      <c r="A4" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-    </row>
-    <row r="3" spans="1:7" ht="44" customHeight="1">
-      <c r="A3" s="178" t="s">
+      <c r="B4" s="60" t="s">
         <v>346</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-    </row>
-    <row r="4" spans="1:7" ht="45" customHeight="1">
-      <c r="A4" s="88" t="s">
-        <v>270</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="57">
-      <c r="A5" s="43" t="s">
+      <c r="C4" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>749</v>
+      </c>
+      <c r="E4" s="72"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="90"/>
+    </row>
+    <row r="5" spans="1:7" ht="152">
+      <c r="A5" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>348</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>752</v>
-      </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="90"/>
-    </row>
-    <row r="6" spans="1:7" ht="152">
-      <c r="A6" s="63" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="58" t="s">
+      <c r="C5" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>749</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="92"/>
+    </row>
+    <row r="6" spans="1:7" ht="114">
+      <c r="A6" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="60" t="s">
         <v>349</v>
       </c>
-      <c r="C6" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>752</v>
-      </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="92"/>
-    </row>
-    <row r="7" spans="1:7" ht="114">
-      <c r="A7" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" s="60" t="s">
+      <c r="C6" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>750</v>
+      </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+    </row>
+    <row r="7" spans="1:7" ht="57">
+      <c r="A7" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="92"/>
+    </row>
+    <row r="8" spans="1:7" ht="59.25" customHeight="1">
+      <c r="A8" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="C7" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>753</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="90"/>
-    </row>
-    <row r="8" spans="1:7" ht="57">
-      <c r="A8" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>297</v>
-      </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="92"/>
-    </row>
-    <row r="9" spans="1:7" ht="59.25" customHeight="1">
+      <c r="C8" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
+    </row>
+    <row r="9" spans="1:7" ht="76">
       <c r="A9" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="44" t="s">
         <v>353</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="C9" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="69" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="114">
+      <c r="A10" s="43" t="s">
         <v>354</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90"/>
-    </row>
-    <row r="10" spans="1:7" ht="76">
-      <c r="A10" s="43" t="s">
-        <v>318</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>355</v>
       </c>
       <c r="C10" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="73" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="108" customHeight="1">
+      <c r="A11" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" s="77" t="s">
         <v>279</v>
       </c>
-      <c r="D10" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="69" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="114">
-      <c r="A11" s="43" t="s">
-        <v>356</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>358</v>
-      </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="73" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="108" customHeight="1">
-      <c r="A12" s="57" t="s">
-        <v>337</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>360</v>
+      <c r="E11" s="94"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="92"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="82" t="s">
+        <v>338</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>339</v>
       </c>
       <c r="C12" s="93" t="s">
-        <v>283</v>
-      </c>
-      <c r="D12" s="77" t="s">
-        <v>280</v>
-      </c>
-      <c r="E12" s="94"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="92"/>
+        <v>282</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="66" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="57">
-      <c r="A13" s="82" t="s">
-        <v>339</v>
-      </c>
-      <c r="B13" s="83" t="s">
-        <v>340</v>
-      </c>
-      <c r="C13" s="93" t="s">
-        <v>283</v>
-      </c>
-      <c r="D13" s="96" t="s">
+      <c r="A13" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="E13" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="66" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="57">
-      <c r="A14" s="43" t="s">
+      <c r="B13" s="60" t="s">
         <v>342</v>
       </c>
-      <c r="B14" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>312</v>
-      </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="90"/>
+      <c r="C13" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" s="86"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="90"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="3"/>
@@ -33276,58 +33203,43 @@
     <row r="991" spans="2:2" ht="15.75" customHeight="1">
       <c r="B991" s="3"/>
     </row>
-    <row r="992" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B992" s="3"/>
-    </row>
-    <row r="1048576" ht="12.25" customHeight="1"/>
+    <row r="1048575" ht="12.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A6:F6 A5:C5 E5:F5 A8:F12 A7:C7 E7:F7">
-    <cfRule type="expression" dxfId="71" priority="8" stopIfTrue="1">
-      <formula>$C5="Sì"</formula>
+  <conditionalFormatting sqref="A4:F11">
+    <cfRule type="expression" dxfId="67" priority="1" stopIfTrue="1">
+      <formula>$C4="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:F14">
-    <cfRule type="expression" dxfId="70" priority="9" stopIfTrue="1">
-      <formula>$C14="Sì"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="69" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="A13:F13">
+    <cfRule type="expression" dxfId="66" priority="9" stopIfTrue="1">
       <formula>$C13="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:F13">
-    <cfRule type="expression" dxfId="68" priority="11" stopIfTrue="1">
-      <formula>$C13="Sì"</formula>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="65" priority="10" stopIfTrue="1">
+      <formula>$C12="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="67" priority="12" stopIfTrue="1">
-      <formula>$C11="Sì"</formula>
+  <conditionalFormatting sqref="E12:F12">
+    <cfRule type="expression" dxfId="64" priority="11" stopIfTrue="1">
+      <formula>$C12="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
-      <formula>$C5="Sì"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$C7="Sì"</formula>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="expression" dxfId="63" priority="12" stopIfTrue="1">
+      <formula>$C10="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="E10" location="'Tassonomia UTENTI'!A1" display="Utenti" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="G10" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="G11" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="E13" location="'Tassonomia ARGOMENTI'!A1" display="Argomenti" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="G13" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="E9" location="'Tassonomia UTENTI'!A1" display="Utenti" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="G10" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="E12" location="'Tassonomia ARGOMENTI'!A1" display="Argomenti" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="G12" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -33336,10 +33248,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AMJ1003"/>
+  <dimension ref="A1:AMJ1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -33355,471 +33267,495 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="39.75" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="181" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+    </row>
+    <row r="2" spans="1:25" ht="50" customHeight="1">
+      <c r="A2" s="184" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+    </row>
+    <row r="3" spans="1:25" ht="39" customHeight="1">
+      <c r="A3" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="98" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="98" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="57">
+      <c r="A4" s="43" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-    </row>
-    <row r="2" spans="1:25" ht="50" customHeight="1">
-      <c r="A2" s="180" t="s">
+      <c r="B4" s="99" t="s">
         <v>362</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-    </row>
-    <row r="3" spans="1:25" ht="34" customHeight="1">
-      <c r="A3" s="178" t="s">
+      <c r="C4" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>749</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="72"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+    </row>
+    <row r="5" spans="1:25" ht="114">
+      <c r="A5" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="102" t="s">
         <v>363</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-    </row>
-    <row r="4" spans="1:25" ht="39" customHeight="1">
-      <c r="A4" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="E4" s="98" t="s">
-        <v>274</v>
-      </c>
-      <c r="F4" s="98" t="s">
-        <v>275</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="57">
-      <c r="A5" s="43" t="s">
+      <c r="C5" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>749</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+    </row>
+    <row r="6" spans="1:25" ht="95">
+      <c r="A6" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="C6" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" s="175" t="s">
+        <v>750</v>
+      </c>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+    </row>
+    <row r="7" spans="1:25" ht="38">
+      <c r="A7" s="57" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="102" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>752</v>
-      </c>
-      <c r="E5" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="101"/>
-      <c r="U5" s="101"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="101"/>
-    </row>
-    <row r="6" spans="1:25" ht="114">
-      <c r="A6" s="63" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="102" t="s">
+      <c r="C7" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="104"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="104"/>
+      <c r="W7" s="104"/>
+      <c r="X7" s="104"/>
+      <c r="Y7" s="104"/>
+    </row>
+    <row r="8" spans="1:25" ht="39.75" customHeight="1">
+      <c r="A8" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" s="102" t="s">
         <v>366</v>
       </c>
-      <c r="C6" s="65" t="s">
-        <v>283</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>752</v>
-      </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-    </row>
-    <row r="7" spans="1:25" ht="95">
-      <c r="A7" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>367</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D7" s="201" t="s">
-        <v>753</v>
-      </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-    </row>
-    <row r="8" spans="1:25" ht="38">
-      <c r="A8" s="57" t="s">
-        <v>295</v>
-      </c>
-      <c r="B8" s="102" t="s">
-        <v>368</v>
-      </c>
       <c r="C8" s="55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
       <c r="G8" s="103"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
-    </row>
-    <row r="9" spans="1:25" ht="39.75" customHeight="1">
-      <c r="A9" s="57" t="s">
-        <v>316</v>
-      </c>
-      <c r="B9" s="102" t="s">
-        <v>369</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="D9" s="77" t="s">
-        <v>300</v>
-      </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+    </row>
+    <row r="9" spans="1:25" ht="76">
+      <c r="A9" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="86"/>
+      <c r="G9" s="69" t="s">
+        <v>319</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="1:25" ht="76">
       <c r="A10" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="100"/>
+    </row>
+    <row r="11" spans="1:25" ht="75.75" customHeight="1">
+      <c r="A11" s="43" t="s">
         <v>370</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B11" s="99" t="s">
         <v>371</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="69" t="s">
-        <v>320</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" ht="76">
-      <c r="A11" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="B11" s="99" t="s">
-        <v>372</v>
-      </c>
       <c r="C11" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="E11" s="86"/>
       <c r="F11" s="86"/>
       <c r="G11" s="100"/>
-    </row>
-    <row r="12" spans="1:25" ht="75.75" customHeight="1">
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+    </row>
+    <row r="12" spans="1:25" ht="40.5" customHeight="1">
       <c r="A12" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12" s="99" t="s">
         <v>373</v>
       </c>
-      <c r="B12" s="99" t="s">
-        <v>374</v>
-      </c>
       <c r="C12" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E12" s="86"/>
       <c r="F12" s="86"/>
       <c r="G12" s="100"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-    </row>
-    <row r="13" spans="1:25" ht="40.5" customHeight="1">
+    </row>
+    <row r="13" spans="1:25" ht="25">
       <c r="A13" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>314</v>
+      </c>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+    </row>
+    <row r="14" spans="1:25" ht="78" customHeight="1">
+      <c r="A14" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="99" t="s">
         <v>375</v>
       </c>
-      <c r="B13" s="99" t="s">
-        <v>376</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="100"/>
-    </row>
-    <row r="14" spans="1:25" ht="25">
-      <c r="A14" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>377</v>
-      </c>
       <c r="C14" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="E14" s="72" t="s">
-        <v>315</v>
-      </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
+        <v>274</v>
+      </c>
+      <c r="E14" s="86"/>
+      <c r="F14" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="73" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="15" spans="1:25" ht="78" customHeight="1">
       <c r="A15" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="99" t="s">
+        <v>376</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="E15" s="86"/>
+      <c r="F15" s="172" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="172" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="78" customHeight="1">
+      <c r="A16" s="57" t="s">
         <v>378</v>
       </c>
-      <c r="C15" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="73" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="78" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="B16" s="64" t="s">
         <v>379</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="C16" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="173" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="38">
+      <c r="A17" s="57" t="s">
         <v>380</v>
       </c>
-      <c r="C16" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="E16" s="86"/>
-      <c r="F16" s="172" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="172" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="78" customHeight="1">
-      <c r="A17" s="57" t="s">
+      <c r="B17" s="64" t="s">
         <v>381</v>
       </c>
-      <c r="B17" s="64" t="s">
-        <v>382</v>
-      </c>
       <c r="C17" s="55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="80" t="s">
         <v>34</v>
       </c>
       <c r="G17" s="173" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="38">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="69.75" customHeight="1">
       <c r="A18" s="57" t="s">
+        <v>333</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="80" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="25">
+      <c r="A19" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B19" s="64" t="s">
         <v>384</v>
       </c>
-      <c r="C18" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="173" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="69.75" customHeight="1">
-      <c r="A19" s="57" t="s">
-        <v>334</v>
-      </c>
-      <c r="B19" s="64" t="s">
+      <c r="C19" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="D19" s="77" t="s">
         <v>385</v>
       </c>
-      <c r="C19" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="D19" s="77" t="s">
-        <v>275</v>
-      </c>
       <c r="E19" s="53"/>
-      <c r="F19" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="80" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="25">
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+    </row>
+    <row r="20" spans="1:25" ht="57">
       <c r="A20" s="57" t="s">
         <v>386</v>
       </c>
@@ -33827,52 +33763,56 @@
         <v>387</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D20" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="F20" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="80" t="s">
+        <v>308</v>
+      </c>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+    </row>
+    <row r="21" spans="1:25" ht="76.5" customHeight="1">
+      <c r="A21" s="57" t="s">
         <v>388</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-    </row>
-    <row r="21" spans="1:25" ht="57">
-      <c r="A21" s="57" t="s">
+      <c r="B21" s="102" t="s">
         <v>389</v>
       </c>
-      <c r="B21" s="64" t="s">
-        <v>390</v>
-      </c>
       <c r="C21" s="55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E21" s="53"/>
-      <c r="F21" s="80" t="s">
-        <v>32</v>
+      <c r="F21" s="79" t="s">
+        <v>23</v>
       </c>
       <c r="G21" s="80" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H21" s="71"/>
       <c r="I21" s="71"/>
@@ -33893,100 +33833,62 @@
       <c r="X21" s="71"/>
       <c r="Y21" s="71"/>
     </row>
-    <row r="22" spans="1:25" ht="76.5" customHeight="1">
+    <row r="22" spans="1:25" ht="32.25" customHeight="1">
       <c r="A22" s="57" t="s">
-        <v>391</v>
-      </c>
-      <c r="B22" s="102" t="s">
-        <v>392</v>
+        <v>336</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>390</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D22" s="77" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="E22" s="53"/>
-      <c r="F22" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="80" t="s">
-        <v>309</v>
-      </c>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-    </row>
-    <row r="23" spans="1:25" ht="32.25" customHeight="1">
-      <c r="A23" s="57" t="s">
-        <v>337</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>393</v>
+      <c r="F22" s="53"/>
+      <c r="G22" s="55"/>
+    </row>
+    <row r="23" spans="1:25" ht="38">
+      <c r="A23" s="82" t="s">
+        <v>338</v>
+      </c>
+      <c r="B23" s="83" t="s">
+        <v>339</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="D23" s="77" t="s">
-        <v>300</v>
-      </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="55"/>
-    </row>
-    <row r="24" spans="1:25" ht="38">
-      <c r="A24" s="82" t="s">
-        <v>339</v>
-      </c>
-      <c r="B24" s="83" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" s="84" t="s">
         <v>340</v>
       </c>
-      <c r="C24" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="D24" s="84" t="s">
+      <c r="E23" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="55"/>
+      <c r="G23" s="66" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="57">
+      <c r="A24" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="E24" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="66" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="57">
-      <c r="A25" s="43" t="s">
+      <c r="B24" s="60" t="s">
         <v>342</v>
       </c>
-      <c r="B25" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D25" s="61" t="s">
-        <v>312</v>
-      </c>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="46"/>
-    </row>
+      <c r="C24" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="46"/>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1"/>
     <row r="26" spans="1:25" ht="15.75" customHeight="1"/>
     <row r="27" spans="1:25" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:25" ht="15.75" customHeight="1"/>
@@ -34964,80 +34866,77 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="66" priority="12" stopIfTrue="1">
-      <formula>$C6="Sì"</formula>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="expression" dxfId="62" priority="12" stopIfTrue="1">
+      <formula>$C5="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="65" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="B13">
+    <cfRule type="expression" dxfId="61" priority="13" stopIfTrue="1">
+      <formula>$C13="Sì"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="expression" dxfId="60" priority="15" stopIfTrue="1">
+      <formula>$C24="Sì"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="59" priority="1" stopIfTrue="1">
+      <formula>$C4="Sì"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="58" priority="16" stopIfTrue="1">
+      <formula>$C13="Sì"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:F14 B15 E19:F24">
+    <cfRule type="expression" dxfId="57" priority="14" stopIfTrue="1">
+      <formula>$C4="Sì"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:G18">
+    <cfRule type="expression" dxfId="56" priority="4" stopIfTrue="1">
+      <formula>$C15="Sì"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="55" priority="17" stopIfTrue="1">
       <formula>$C14="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="64" priority="15" stopIfTrue="1">
-      <formula>$C25="Sì"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="63" priority="16" stopIfTrue="1">
-      <formula>$C14="Sì"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:F15 B16 E20:F25">
-    <cfRule type="expression" dxfId="62" priority="14" stopIfTrue="1">
-      <formula>$C5="Sì"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:G19">
-    <cfRule type="expression" dxfId="61" priority="4" stopIfTrue="1">
-      <formula>$C16="Sì"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="60" priority="17" stopIfTrue="1">
-      <formula>$C15="Sì"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G22">
-    <cfRule type="expression" dxfId="59" priority="2" stopIfTrue="1">
-      <formula>$C21="Sì"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
-      <formula>$C5="Sì"</formula>
+  <conditionalFormatting sqref="G20:G21">
+    <cfRule type="expression" dxfId="54" priority="2" stopIfTrue="1">
+      <formula>$C20="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="E5" location="'Tassonomia STRUTTURE'!A1" display="Strutture" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="E10" location="'Tassonomia UTENTI'!A1" display="Utenti" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="G10" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="E14" location="Tassonomia PUNTO DI CONTATTO" display="Tipi di Punto di Contatto" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="F15" location="'Tipologia SERVIZIO'!A1" display="Servizio" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="G15" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="F16" location="'Tipologia PERSONA'!A1" display="Persona" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="G16" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="F17" location="'Tipologia PERSONA'!A1" display="Persona" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
-    <hyperlink ref="G17" r:id="rId5" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
-    <hyperlink ref="F18" location="'Tipologia PERSONA'!A1" display="Persona" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
-    <hyperlink ref="F19" location="'Tipologia NOTIZIA E COMUNICATO'!A1" display="Notizia e comunicato" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
-    <hyperlink ref="G19" r:id="rId6" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
-    <hyperlink ref="F21" location="'Tipologia UNITÀ ORGANIZZATIVA'!A1" display="Unità organizzativa" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
-    <hyperlink ref="G21" r:id="rId7" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
-    <hyperlink ref="F22" location="'Tipologia STRUTTURA'!A1" display="Struttura" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
-    <hyperlink ref="G22" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
-    <hyperlink ref="E24" location="'Tassonomia ARGOMENTI'!A1" display="Argomenti" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
-    <hyperlink ref="G24" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
-    <hyperlink ref="G18" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
+    <hyperlink ref="E4" location="'Tassonomia STRUTTURE'!A1" display="Strutture" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="E9" location="'Tassonomia UTENTI'!A1" display="Utenti" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="E13" location="Tassonomia PUNTO DI CONTATTO" display="Tipi di Punto di Contatto" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="F14" location="'Tipologia SERVIZIO'!A1" display="Servizio" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="G14" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="F15" location="'Tipologia PERSONA'!A1" display="Persona" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="G15" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="F16" location="'Tipologia PERSONA'!A1" display="Persona" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="G16" r:id="rId4" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="F17" location="'Tipologia PERSONA'!A1" display="Persona" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="F18" location="'Tipologia NOTIZIA E COMUNICATO'!A1" display="Notizia e comunicato" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="G18" r:id="rId5" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="F20" location="'Tipologia UNITÀ ORGANIZZATIVA'!A1" display="Unità organizzativa" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="G20" r:id="rId6" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="F21" location="'Tipologia STRUTTURA'!A1" display="Struttura" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
+    <hyperlink ref="G21" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
+    <hyperlink ref="E23" location="'Tassonomia ARGOMENTI'!A1" display="Argomenti" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
+    <hyperlink ref="G23" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
+    <hyperlink ref="G17" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -35066,62 +34965,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A1" s="179" t="s">
-        <v>394</v>
-      </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
+      <c r="A1" s="183" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
     </row>
     <row r="2" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A2" s="180" t="s">
-        <v>395</v>
-      </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
+      <c r="A2" s="184" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
     </row>
     <row r="3" spans="1:7" ht="52.5" customHeight="1">
       <c r="A3" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="C3" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="D3" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="E3" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="F3" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="G3" s="106" t="s">
         <v>275</v>
-      </c>
-      <c r="G3" s="106" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="57">
       <c r="A4" s="43" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
@@ -35129,16 +35028,16 @@
     </row>
     <row r="5" spans="1:7" ht="57">
       <c r="A5" s="57" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E5" s="108" t="s">
         <v>38</v>
@@ -35148,16 +35047,16 @@
     </row>
     <row r="6" spans="1:7" ht="38">
       <c r="A6" s="43" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D6" s="201" t="s">
-        <v>753</v>
+        <v>278</v>
+      </c>
+      <c r="D6" s="175" t="s">
+        <v>750</v>
       </c>
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
@@ -35165,16 +35064,16 @@
     </row>
     <row r="7" spans="1:7" ht="38">
       <c r="A7" s="43" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="46"/>
@@ -35182,16 +35081,16 @@
     </row>
     <row r="8" spans="1:7" ht="57">
       <c r="A8" s="57" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E8" s="111"/>
       <c r="F8" s="55"/>
@@ -35199,16 +35098,16 @@
     </row>
     <row r="9" spans="1:7" ht="51.75" customHeight="1">
       <c r="A9" s="57" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E9" s="111"/>
       <c r="F9" s="55"/>
@@ -35216,16 +35115,16 @@
     </row>
     <row r="10" spans="1:7" ht="38">
       <c r="A10" s="57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="55"/>
@@ -35233,16 +35132,16 @@
     </row>
     <row r="11" spans="1:7" ht="43.5" customHeight="1">
       <c r="A11" s="43" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
@@ -35253,34 +35152,34 @@
         <v>208</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E12" s="111"/>
       <c r="F12" s="80" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="80" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="38">
       <c r="A13" s="57" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E13" s="111"/>
       <c r="F13" s="55"/>
@@ -35288,23 +35187,23 @@
     </row>
     <row r="14" spans="1:7" ht="95">
       <c r="A14" s="57" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E14" s="111"/>
       <c r="F14" s="79" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="173" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="76">
@@ -35312,20 +35211,20 @@
         <v>110</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E15" s="111"/>
       <c r="F15" s="79" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="80" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="95">
@@ -35333,34 +35232,34 @@
         <v>59</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E16" s="77"/>
       <c r="F16" s="80" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="80" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="51" customHeight="1">
       <c r="A17" s="43" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="72" t="s">
@@ -35370,69 +35269,69 @@
     </row>
     <row r="18" spans="1:25" ht="104" customHeight="1">
       <c r="A18" s="78" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B18" s="102" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E18" s="77"/>
       <c r="F18" s="80" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="80" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="55" customHeight="1">
-      <c r="A19" s="181" t="s">
-        <v>339</v>
-      </c>
-      <c r="B19" s="182" t="s">
-        <v>422</v>
-      </c>
-      <c r="C19" s="183" t="s">
-        <v>283</v>
-      </c>
-      <c r="D19" s="184" t="s">
-        <v>341</v>
+      <c r="A19" s="185" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" s="186" t="s">
+        <v>419</v>
+      </c>
+      <c r="C19" s="187" t="s">
+        <v>282</v>
+      </c>
+      <c r="D19" s="188" t="s">
+        <v>340</v>
       </c>
       <c r="E19" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="185"/>
-      <c r="G19" s="186" t="s">
-        <v>320</v>
+      <c r="F19" s="189"/>
+      <c r="G19" s="190" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="46" customHeight="1">
-      <c r="A20" s="181"/>
-      <c r="B20" s="182"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="184"/>
+      <c r="A20" s="185"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="188"/>
       <c r="E20" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="185"/>
-      <c r="G20" s="186"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="190"/>
     </row>
     <row r="21" spans="1:25" ht="76">
       <c r="A21" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="B21" s="60" t="s">
         <v>342</v>
       </c>
-      <c r="B21" s="60" t="s">
-        <v>343</v>
-      </c>
       <c r="C21" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="46"/>
@@ -35549,7 +35448,7 @@
     <row r="34" spans="3:3" ht="15.75" customHeight="1"/>
     <row r="35" spans="3:3" ht="15.75" customHeight="1">
       <c r="C35" s="15" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="3:3" ht="15.75" customHeight="1"/>
@@ -36533,58 +36432,58 @@
     <mergeCell ref="G19:G20"/>
   </mergeCells>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="58" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="20" stopIfTrue="1">
       <formula>$C16="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="57" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="21" stopIfTrue="1">
       <formula>$C18="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:F5 A17:F17 A4:C4 E4:F4 A7:F15 A6:C6 E6:F6">
-    <cfRule type="expression" dxfId="56" priority="19" stopIfTrue="1">
+  <conditionalFormatting sqref="A6:C6 E6:F6 A7:F15 A17:F17">
+    <cfRule type="expression" dxfId="51" priority="19" stopIfTrue="1">
+      <formula>$C6="Sì"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:F5">
+    <cfRule type="expression" dxfId="50" priority="1" stopIfTrue="1">
       <formula>$C4="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:F32">
-    <cfRule type="expression" dxfId="55" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="22" stopIfTrue="1">
       <formula>$C21="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="expression" dxfId="54" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="24" stopIfTrue="1">
       <formula>$C18="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:F16">
-    <cfRule type="expression" dxfId="53" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="23" stopIfTrue="1">
       <formula>$C16="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G18">
-    <cfRule type="expression" dxfId="52" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="18" stopIfTrue="1">
       <formula>$C18="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:F19 E20">
-    <cfRule type="expression" dxfId="51" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="26" stopIfTrue="1">
       <formula>$C19="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="50" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="5" stopIfTrue="1">
       <formula>$C12="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G16">
-    <cfRule type="expression" dxfId="49" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="2" stopIfTrue="1">
       <formula>$C14="Sì"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
-      <formula>$C4="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -36630,62 +36529,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A1" s="179" t="s">
-        <v>424</v>
-      </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
+      <c r="A1" s="183" t="s">
+        <v>421</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
     </row>
     <row r="2" spans="1:26" ht="44.25" customHeight="1">
-      <c r="A2" s="187" t="s">
-        <v>425</v>
-      </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
+      <c r="A2" s="191" t="s">
+        <v>422</v>
+      </c>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
     </row>
     <row r="3" spans="1:26" ht="33" customHeight="1">
       <c r="A3" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="C3" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="D3" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="E3" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="F3" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="G3" s="42" t="s">
         <v>275</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="38">
       <c r="A4" s="43" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
@@ -36693,35 +36592,35 @@
     </row>
     <row r="5" spans="1:26" ht="57">
       <c r="A5" s="43" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E5" s="120" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F5" s="89"/>
       <c r="G5" s="90"/>
     </row>
     <row r="6" spans="1:26" ht="57">
       <c r="A6" s="43" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E6" s="89"/>
       <c r="F6" s="89"/>
@@ -36729,16 +36628,16 @@
     </row>
     <row r="7" spans="1:26" ht="57">
       <c r="A7" s="43" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E7" s="89"/>
       <c r="F7" s="89"/>
@@ -36746,16 +36645,16 @@
     </row>
     <row r="8" spans="1:26" ht="133">
       <c r="A8" s="43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="D8" s="201" t="s">
-        <v>753</v>
+        <v>278</v>
+      </c>
+      <c r="D8" s="175" t="s">
+        <v>750</v>
       </c>
       <c r="E8" s="89"/>
       <c r="F8" s="89"/>
@@ -36763,16 +36662,16 @@
     </row>
     <row r="9" spans="1:26" ht="57">
       <c r="A9" s="63" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9" s="121" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C9" s="111" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D9" s="111" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E9" s="122"/>
       <c r="F9" s="122"/>
@@ -36780,16 +36679,16 @@
     </row>
     <row r="10" spans="1:26" ht="43.5" customHeight="1">
       <c r="A10" s="43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E10" s="89"/>
       <c r="F10" s="89"/>
@@ -36797,58 +36696,58 @@
     </row>
     <row r="11" spans="1:26" ht="114">
       <c r="A11" s="63" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B11" s="121" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C11" s="111" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D11" s="111" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E11" s="122"/>
       <c r="F11" s="124" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="125" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="76">
       <c r="A12" s="63" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E12" s="126"/>
       <c r="F12" s="124" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="173" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="73.5" customHeight="1">
       <c r="A13" s="63" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B13" s="121" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C13" s="111" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D13" s="75" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E13" s="127"/>
       <c r="F13" s="91"/>
@@ -36856,23 +36755,23 @@
     </row>
     <row r="14" spans="1:26" ht="95">
       <c r="A14" s="43" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C14" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="46" t="s">
         <v>279</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>280</v>
       </c>
       <c r="E14" s="120" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="89"/>
       <c r="G14" s="69" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -36896,23 +36795,23 @@
     </row>
     <row r="15" spans="1:26" ht="114">
       <c r="A15" s="43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C15" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="46" t="s">
         <v>279</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>280</v>
       </c>
       <c r="E15" s="128"/>
       <c r="F15" s="128" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="73" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -36936,16 +36835,16 @@
     </row>
     <row r="16" spans="1:26" ht="76">
       <c r="A16" s="43" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B16" s="129" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E16" s="90"/>
       <c r="F16" s="89"/>
@@ -36953,16 +36852,16 @@
     </row>
     <row r="17" spans="1:26" ht="57">
       <c r="A17" s="63" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B17" s="121" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E17" s="75"/>
       <c r="F17" s="79" t="s">
@@ -36972,13 +36871,13 @@
     </row>
     <row r="18" spans="1:26" ht="38">
       <c r="A18" s="43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D18" s="61"/>
       <c r="E18" s="74" t="s">
@@ -36992,20 +36891,20 @@
         <v>208</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E19" s="75"/>
       <c r="F19" s="79" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="80" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
@@ -37029,37 +36928,37 @@
     </row>
     <row r="20" spans="1:26" ht="75" customHeight="1">
       <c r="A20" s="43" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E20" s="61"/>
       <c r="F20" s="72" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="73" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="66.75" customHeight="1">
       <c r="A21" s="63" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B21" s="121" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E21" s="75"/>
       <c r="F21" s="55"/>
@@ -37067,16 +36966,16 @@
     </row>
     <row r="22" spans="1:26" ht="27" customHeight="1">
       <c r="A22" s="63" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B22" s="121" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E22" s="75"/>
       <c r="F22" s="55"/>
@@ -37084,16 +36983,16 @@
     </row>
     <row r="23" spans="1:26" ht="71.25" customHeight="1">
       <c r="A23" s="63" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B23" s="121" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E23" s="75"/>
       <c r="F23" s="55"/>
@@ -37101,58 +37000,58 @@
     </row>
     <row r="24" spans="1:26" ht="95.25" customHeight="1">
       <c r="A24" s="78" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B24" s="102" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D24" s="77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E24" s="77"/>
       <c r="F24" s="80" t="s">
         <v>30</v>
       </c>
       <c r="G24" s="125" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="57">
       <c r="A25" s="82" t="s">
+        <v>338</v>
+      </c>
+      <c r="B25" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="C25" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="D25" s="84" t="s">
         <v>340</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="D25" s="84" t="s">
-        <v>341</v>
       </c>
       <c r="E25" s="85" t="s">
         <v>42</v>
       </c>
       <c r="F25" s="55"/>
       <c r="G25" s="66" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="76">
       <c r="A26" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="B26" s="60" t="s">
         <v>342</v>
       </c>
-      <c r="B26" s="60" t="s">
-        <v>343</v>
-      </c>
       <c r="C26" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E26" s="86"/>
       <c r="F26" s="46"/>
@@ -38137,53 +38036,53 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="A14:A15">
-    <cfRule type="expression" dxfId="48" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="28" stopIfTrue="1">
       <formula>$C14="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24 C24:F24">
-    <cfRule type="expression" dxfId="47" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="30" stopIfTrue="1">
       <formula>$C24="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:F7 A4:C4 E4:F4 A9:F13 A8:C8 E8:F8">
-    <cfRule type="expression" dxfId="46" priority="27" stopIfTrue="1">
+  <conditionalFormatting sqref="A8:C8 E8:F8 A9:F13">
+    <cfRule type="expression" dxfId="40" priority="27" stopIfTrue="1">
+      <formula>$C8="Sì"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:F7">
+    <cfRule type="expression" dxfId="39" priority="1" stopIfTrue="1">
       <formula>$C4="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:F23">
-    <cfRule type="expression" dxfId="45" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="29" stopIfTrue="1">
       <formula>$C16="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="expression" dxfId="44" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="31" stopIfTrue="1">
       <formula>$C26="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:F15">
-    <cfRule type="expression" dxfId="43" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="32" stopIfTrue="1">
       <formula>$C14="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:F25">
-    <cfRule type="expression" dxfId="42" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
       <formula>$C25="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="41" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
       <formula>$C12="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15 G19:G20">
-    <cfRule type="expression" dxfId="40" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
       <formula>$C15="Sì"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
-      <formula>$C4="Sì"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
